--- a/APPSHEET/EXCEL/caja_resumen_melos1.xlsx
+++ b/APPSHEET/EXCEL/caja_resumen_melos1.xlsx
@@ -227,7 +227,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-03</t>
+            <t xml:space="preserve">2023-06-26</t>
           </r>
         </is>
       </c>
@@ -245,7 +245,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2408000</t>
+            <t xml:space="preserve">899000</t>
           </r>
         </is>
       </c>
@@ -254,7 +254,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">662000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -263,7 +263,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -281,7 +281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">662000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -290,7 +290,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2393000</t>
+            <t xml:space="preserve">899000</t>
           </r>
         </is>
       </c>
@@ -299,16 +299,16 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">19</t>
-          </r>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -319,7 +319,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-02</t>
+            <t xml:space="preserve">2023-06-25</t>
           </r>
         </is>
       </c>
@@ -337,7 +337,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3212000</t>
+            <t xml:space="preserve">5253000</t>
           </r>
         </is>
       </c>
@@ -355,7 +355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">165000</t>
+            <t xml:space="preserve">250000</t>
           </r>
         </is>
       </c>
@@ -382,7 +382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3047000</t>
+            <t xml:space="preserve">5003000</t>
           </r>
         </is>
       </c>
@@ -400,7 +400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">89</t>
           </r>
         </is>
       </c>
@@ -411,7 +411,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-06-01</t>
+            <t xml:space="preserve">2023-06-24</t>
           </r>
         </is>
       </c>
@@ -429,7 +429,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3287000</t>
+            <t xml:space="preserve">2757000</t>
           </r>
         </is>
       </c>
@@ -447,7 +447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">506000</t>
+            <t xml:space="preserve">455000</t>
           </r>
         </is>
       </c>
@@ -474,7 +474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2781000</t>
+            <t xml:space="preserve">2302000</t>
           </r>
         </is>
       </c>
@@ -492,7 +492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -503,7 +503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-31</t>
+            <t xml:space="preserve">2023-06-23</t>
           </r>
         </is>
       </c>
@@ -521,7 +521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3932000</t>
+            <t xml:space="preserve">2903000</t>
           </r>
         </is>
       </c>
@@ -539,7 +539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">170000</t>
+            <t xml:space="preserve">360000</t>
           </r>
         </is>
       </c>
@@ -566,7 +566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3762000</t>
+            <t xml:space="preserve">2543000</t>
           </r>
         </is>
       </c>
@@ -584,7 +584,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -595,7 +595,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-30</t>
+            <t xml:space="preserve">2023-06-22</t>
           </r>
         </is>
       </c>
@@ -613,7 +613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2545000</t>
+            <t xml:space="preserve">2077000</t>
           </r>
         </is>
       </c>
@@ -631,7 +631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">96000</t>
+            <t xml:space="preserve">260000</t>
           </r>
         </is>
       </c>
@@ -658,7 +658,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2449000</t>
+            <t xml:space="preserve">1817000</t>
           </r>
         </is>
       </c>
@@ -676,7 +676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">54</t>
+            <t xml:space="preserve">45</t>
           </r>
         </is>
       </c>
@@ -687,7 +687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-29</t>
+            <t xml:space="preserve">2023-06-21</t>
           </r>
         </is>
       </c>
@@ -705,7 +705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2194000</t>
+            <t xml:space="preserve">2665000</t>
           </r>
         </is>
       </c>
@@ -723,7 +723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">198000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -750,7 +750,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1996000</t>
+            <t xml:space="preserve">2565000</t>
           </r>
         </is>
       </c>
@@ -768,7 +768,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">49</t>
+            <t xml:space="preserve">53</t>
           </r>
         </is>
       </c>
@@ -779,7 +779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-28</t>
+            <t xml:space="preserve">2023-06-20</t>
           </r>
         </is>
       </c>
@@ -797,7 +797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4240000</t>
+            <t xml:space="preserve">1793000</t>
           </r>
         </is>
       </c>
@@ -815,7 +815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">360000</t>
+            <t xml:space="preserve">170000</t>
           </r>
         </is>
       </c>
@@ -842,7 +842,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3880000</t>
+            <t xml:space="preserve">1623000</t>
           </r>
         </is>
       </c>
@@ -860,7 +860,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -871,7 +871,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-27</t>
+            <t xml:space="preserve">2023-06-19</t>
           </r>
         </is>
       </c>
@@ -889,7 +889,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4685000</t>
+            <t xml:space="preserve">1224000</t>
           </r>
         </is>
       </c>
@@ -907,7 +907,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -934,7 +934,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4605000</t>
+            <t xml:space="preserve">1024000</t>
           </r>
         </is>
       </c>
@@ -952,7 +952,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">31</t>
           </r>
         </is>
       </c>
@@ -963,7 +963,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-26</t>
+            <t xml:space="preserve">2023-06-18</t>
           </r>
         </is>
       </c>
@@ -981,7 +981,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2677000</t>
+            <t xml:space="preserve">2660000</t>
           </r>
         </is>
       </c>
@@ -999,7 +999,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">159000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -1026,7 +1026,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2518000</t>
+            <t xml:space="preserve">2360000</t>
           </r>
         </is>
       </c>
@@ -1055,7 +1055,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-25</t>
+            <t xml:space="preserve">2023-06-17</t>
           </r>
         </is>
       </c>
@@ -1073,7 +1073,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3367000</t>
+            <t xml:space="preserve">2616000</t>
           </r>
         </is>
       </c>
@@ -1091,7 +1091,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85000</t>
+            <t xml:space="preserve">385000</t>
           </r>
         </is>
       </c>
@@ -1118,7 +1118,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3282000</t>
+            <t xml:space="preserve">2231000</t>
           </r>
         </is>
       </c>
@@ -1136,7 +1136,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">74</t>
+            <t xml:space="preserve">53</t>
           </r>
         </is>
       </c>
@@ -1147,7 +1147,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-24</t>
+            <t xml:space="preserve">2023-06-16</t>
           </r>
         </is>
       </c>
@@ -1165,7 +1165,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3274000</t>
+            <t xml:space="preserve">1955000</t>
           </r>
         </is>
       </c>
@@ -1183,7 +1183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">97000</t>
+            <t xml:space="preserve">247000</t>
           </r>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3177000</t>
+            <t xml:space="preserve">1708000</t>
           </r>
         </is>
       </c>
@@ -1228,7 +1228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">45</t>
           </r>
         </is>
       </c>
@@ -1239,7 +1239,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-23</t>
+            <t xml:space="preserve">2023-06-15</t>
           </r>
         </is>
       </c>
@@ -1257,7 +1257,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2486000</t>
+            <t xml:space="preserve">1649000</t>
           </r>
         </is>
       </c>
@@ -1275,7 +1275,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">115000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2371000</t>
+            <t xml:space="preserve">1549000</t>
           </r>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">53</t>
+            <t xml:space="preserve">39</t>
           </r>
         </is>
       </c>
@@ -1331,7 +1331,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-22</t>
+            <t xml:space="preserve">2023-06-14</t>
           </r>
         </is>
       </c>
@@ -1349,7 +1349,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2693000</t>
+            <t xml:space="preserve">1582000</t>
           </r>
         </is>
       </c>
@@ -1367,7 +1367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">455000</t>
+            <t xml:space="preserve">95000</t>
           </r>
         </is>
       </c>
@@ -1394,7 +1394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2238000</t>
+            <t xml:space="preserve">1487000</t>
           </r>
         </is>
       </c>
@@ -1412,7 +1412,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">53</t>
+            <t xml:space="preserve">30</t>
           </r>
         </is>
       </c>
@@ -1423,7 +1423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-21</t>
+            <t xml:space="preserve">2023-06-13</t>
           </r>
         </is>
       </c>
@@ -1441,7 +1441,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4576000</t>
+            <t xml:space="preserve">1030000</t>
           </r>
         </is>
       </c>
@@ -1459,7 +1459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">135000</t>
+            <t xml:space="preserve">165000</t>
           </r>
         </is>
       </c>
@@ -1486,7 +1486,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4441000</t>
+            <t xml:space="preserve">865000</t>
           </r>
         </is>
       </c>
@@ -1504,7 +1504,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">74</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -1515,7 +1515,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-20</t>
+            <t xml:space="preserve">2023-06-12</t>
           </r>
         </is>
       </c>
@@ -1533,7 +1533,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4276000</t>
+            <t xml:space="preserve">857000</t>
           </r>
         </is>
       </c>
@@ -1551,7 +1551,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">155000</t>
           </r>
         </is>
       </c>
@@ -1578,7 +1578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4176000</t>
+            <t xml:space="preserve">702000</t>
           </r>
         </is>
       </c>
@@ -1596,7 +1596,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -1607,7 +1607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-19</t>
+            <t xml:space="preserve">2023-06-11</t>
           </r>
         </is>
       </c>
@@ -1625,7 +1625,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3414000</t>
+            <t xml:space="preserve">4805000</t>
           </r>
         </is>
       </c>
@@ -1643,7 +1643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">101000</t>
+            <t xml:space="preserve">280000</t>
           </r>
         </is>
       </c>
@@ -1670,7 +1670,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3313000</t>
+            <t xml:space="preserve">4525000</t>
           </r>
         </is>
       </c>
@@ -1688,7 +1688,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">68</t>
+            <t xml:space="preserve">75</t>
           </r>
         </is>
       </c>
@@ -1699,7 +1699,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-18</t>
+            <t xml:space="preserve">2023-06-10</t>
           </r>
         </is>
       </c>
@@ -1717,7 +1717,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3645000</t>
+            <t xml:space="preserve">3213000</t>
           </r>
         </is>
       </c>
@@ -1735,7 +1735,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">113000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -1762,7 +1762,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3532000</t>
+            <t xml:space="preserve">2913000</t>
           </r>
         </is>
       </c>
@@ -1780,7 +1780,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">70</t>
+            <t xml:space="preserve">63</t>
           </r>
         </is>
       </c>
@@ -1791,7 +1791,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-17</t>
+            <t xml:space="preserve">2023-06-09</t>
           </r>
         </is>
       </c>
@@ -1809,7 +1809,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2915000</t>
+            <t xml:space="preserve">2582000</t>
           </r>
         </is>
       </c>
@@ -1827,7 +1827,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">476000</t>
+            <t xml:space="preserve">95000</t>
           </r>
         </is>
       </c>
@@ -1854,7 +1854,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2439000</t>
+            <t xml:space="preserve">2487000</t>
           </r>
         </is>
       </c>
@@ -1872,7 +1872,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">64</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -1883,7 +1883,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-16</t>
+            <t xml:space="preserve">2023-06-08</t>
           </r>
         </is>
       </c>
@@ -1901,7 +1901,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2445000</t>
+            <t xml:space="preserve">2661000</t>
           </r>
         </is>
       </c>
@@ -1919,7 +1919,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">99000</t>
+            <t xml:space="preserve">175000</t>
           </r>
         </is>
       </c>
@@ -1946,7 +1946,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2346000</t>
+            <t xml:space="preserve">2486000</t>
           </r>
         </is>
       </c>
@@ -1975,7 +1975,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-15</t>
+            <t xml:space="preserve">2023-06-07</t>
           </r>
         </is>
       </c>
@@ -1993,7 +1993,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3467000</t>
+            <t xml:space="preserve">2592000</t>
           </r>
         </is>
       </c>
@@ -2011,7 +2011,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">359000</t>
           </r>
         </is>
       </c>
@@ -2038,7 +2038,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3467000</t>
+            <t xml:space="preserve">2233000</t>
           </r>
         </is>
       </c>
@@ -2056,7 +2056,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">53</t>
           </r>
         </is>
       </c>
@@ -2067,7 +2067,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-14</t>
+            <t xml:space="preserve">2023-06-06</t>
           </r>
         </is>
       </c>
@@ -2085,7 +2085,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3255000</t>
+            <t xml:space="preserve">2297000</t>
           </r>
         </is>
       </c>
@@ -2103,7 +2103,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">360000</t>
+            <t xml:space="preserve">208000</t>
           </r>
         </is>
       </c>
@@ -2130,7 +2130,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2895000</t>
+            <t xml:space="preserve">2089000</t>
           </r>
         </is>
       </c>
@@ -2148,7 +2148,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63</t>
+            <t xml:space="preserve">46</t>
           </r>
         </is>
       </c>
@@ -2159,7 +2159,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-13</t>
+            <t xml:space="preserve">2023-06-05</t>
           </r>
         </is>
       </c>
@@ -2177,7 +2177,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3904000</t>
+            <t xml:space="preserve">2243000</t>
           </r>
         </is>
       </c>
@@ -2195,7 +2195,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">170000</t>
           </r>
         </is>
       </c>
@@ -2222,7 +2222,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3824000</t>
+            <t xml:space="preserve">2073000</t>
           </r>
         </is>
       </c>
@@ -2240,7 +2240,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">84</t>
+            <t xml:space="preserve">45</t>
           </r>
         </is>
       </c>
@@ -2251,7 +2251,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-12</t>
+            <t xml:space="preserve">2023-06-04</t>
           </r>
         </is>
       </c>
@@ -2269,7 +2269,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3336000</t>
+            <t xml:space="preserve">4362000</t>
           </r>
         </is>
       </c>
@@ -2287,7 +2287,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">120000</t>
+            <t xml:space="preserve">295000</t>
           </r>
         </is>
       </c>
@@ -2314,7 +2314,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3216000</t>
+            <t xml:space="preserve">4067000</t>
           </r>
         </is>
       </c>
@@ -2332,7 +2332,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">64</t>
+            <t xml:space="preserve">73</t>
           </r>
         </is>
       </c>
@@ -2343,7 +2343,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-11</t>
+            <t xml:space="preserve">2023-06-03</t>
           </r>
         </is>
       </c>
@@ -2361,7 +2361,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3259000</t>
+            <t xml:space="preserve">3446000</t>
           </r>
         </is>
       </c>
@@ -2379,7 +2379,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">225000</t>
+            <t xml:space="preserve">290000</t>
           </r>
         </is>
       </c>
@@ -2406,7 +2406,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3034000</t>
+            <t xml:space="preserve">3156000</t>
           </r>
         </is>
       </c>
@@ -2435,7 +2435,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-10</t>
+            <t xml:space="preserve">2023-06-02</t>
           </r>
         </is>
       </c>
@@ -2453,7 +2453,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2665000</t>
+            <t xml:space="preserve">2719000</t>
           </r>
         </is>
       </c>
@@ -2471,7 +2471,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">400000</t>
           </r>
         </is>
       </c>
@@ -2498,7 +2498,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2505000</t>
+            <t xml:space="preserve">2319000</t>
           </r>
         </is>
       </c>
@@ -2516,7 +2516,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">57</t>
+            <t xml:space="preserve">56</t>
           </r>
         </is>
       </c>
@@ -2527,7 +2527,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-09</t>
+            <t xml:space="preserve">2023-06-01</t>
           </r>
         </is>
       </c>
@@ -2545,7 +2545,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2485000</t>
+            <t xml:space="preserve">2465000</t>
           </r>
         </is>
       </c>
@@ -2563,7 +2563,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">81000</t>
+            <t xml:space="preserve">240000</t>
           </r>
         </is>
       </c>
@@ -2590,7 +2590,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2404000</t>
+            <t xml:space="preserve">2225000</t>
           </r>
         </is>
       </c>
@@ -2608,7 +2608,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">56</t>
+            <t xml:space="preserve">52</t>
           </r>
         </is>
       </c>
@@ -2619,7 +2619,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-08</t>
+            <t xml:space="preserve">2023-05-31</t>
           </r>
         </is>
       </c>
@@ -2637,7 +2637,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2983000</t>
+            <t xml:space="preserve">1770000</t>
           </r>
         </is>
       </c>
@@ -2655,7 +2655,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">225000</t>
+            <t xml:space="preserve">150000</t>
           </r>
         </is>
       </c>
@@ -2682,7 +2682,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2758000</t>
+            <t xml:space="preserve">1620000</t>
           </r>
         </is>
       </c>
@@ -2700,7 +2700,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">34</t>
           </r>
         </is>
       </c>
@@ -2711,7 +2711,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-07</t>
+            <t xml:space="preserve">2023-05-30</t>
           </r>
         </is>
       </c>
@@ -2729,7 +2729,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6067000</t>
+            <t xml:space="preserve">1999000</t>
           </r>
         </is>
       </c>
@@ -2747,7 +2747,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">135000</t>
+            <t xml:space="preserve">260000</t>
           </r>
         </is>
       </c>
@@ -2774,7 +2774,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5932000</t>
+            <t xml:space="preserve">1739000</t>
           </r>
         </is>
       </c>
@@ -2792,7 +2792,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">94</t>
+            <t xml:space="preserve">34</t>
           </r>
         </is>
       </c>
@@ -2803,7 +2803,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-06</t>
+            <t xml:space="preserve">2023-05-29</t>
           </r>
         </is>
       </c>
@@ -2821,7 +2821,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4175000</t>
+            <t xml:space="preserve">1256000</t>
           </r>
         </is>
       </c>
@@ -2839,7 +2839,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">105000</t>
+            <t xml:space="preserve">60000</t>
           </r>
         </is>
       </c>
@@ -2866,7 +2866,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4070000</t>
+            <t xml:space="preserve">1196000</t>
           </r>
         </is>
       </c>
@@ -2884,7 +2884,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">92</t>
+            <t xml:space="preserve">30</t>
           </r>
         </is>
       </c>
@@ -2895,7 +2895,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-05</t>
+            <t xml:space="preserve">2023-05-28</t>
           </r>
         </is>
       </c>
@@ -2913,7 +2913,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3677000</t>
+            <t xml:space="preserve">3516000</t>
           </r>
         </is>
       </c>
@@ -2931,7 +2931,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">697000</t>
+            <t xml:space="preserve">280000</t>
           </r>
         </is>
       </c>
@@ -2958,7 +2958,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2980000</t>
+            <t xml:space="preserve">3236000</t>
           </r>
         </is>
       </c>
@@ -2976,7 +2976,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">68</t>
+            <t xml:space="preserve">64</t>
           </r>
         </is>
       </c>
@@ -2987,7 +2987,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-04</t>
+            <t xml:space="preserve">2023-05-27</t>
           </r>
         </is>
       </c>
@@ -3005,7 +3005,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3447000</t>
+            <t xml:space="preserve">2878000</t>
           </r>
         </is>
       </c>
@@ -3023,7 +3023,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">120000</t>
+            <t xml:space="preserve">155000</t>
           </r>
         </is>
       </c>
@@ -3050,7 +3050,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3327000</t>
+            <t xml:space="preserve">2723000</t>
           </r>
         </is>
       </c>
@@ -3068,7 +3068,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">66</t>
+            <t xml:space="preserve">60</t>
           </r>
         </is>
       </c>
@@ -3079,7 +3079,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-03</t>
+            <t xml:space="preserve">2023-05-26</t>
           </r>
         </is>
       </c>
@@ -3097,7 +3097,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3671000</t>
+            <t xml:space="preserve">2563000</t>
           </r>
         </is>
       </c>
@@ -3115,7 +3115,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">125000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -3142,7 +3142,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3546000</t>
+            <t xml:space="preserve">2263000</t>
           </r>
         </is>
       </c>
@@ -3160,7 +3160,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">70</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -3171,7 +3171,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-02</t>
+            <t xml:space="preserve">2023-05-25</t>
           </r>
         </is>
       </c>
@@ -3189,7 +3189,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4024000</t>
+            <t xml:space="preserve">2267000</t>
           </r>
         </is>
       </c>
@@ -3207,7 +3207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">555000</t>
+            <t xml:space="preserve">228000</t>
           </r>
         </is>
       </c>
@@ -3234,7 +3234,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3469000</t>
+            <t xml:space="preserve">2039000</t>
           </r>
         </is>
       </c>
@@ -3252,7 +3252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -3263,7 +3263,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-05-01</t>
+            <t xml:space="preserve">2023-05-24</t>
           </r>
         </is>
       </c>
@@ -3281,7 +3281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4964000</t>
+            <t xml:space="preserve">1697000</t>
           </r>
         </is>
       </c>
@@ -3299,7 +3299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">125000</t>
+            <t xml:space="preserve">309000</t>
           </r>
         </is>
       </c>
@@ -3326,7 +3326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4839000</t>
+            <t xml:space="preserve">1388000</t>
           </r>
         </is>
       </c>
@@ -3344,7 +3344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90</t>
+            <t xml:space="preserve">36</t>
           </r>
         </is>
       </c>
@@ -3355,7 +3355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-30</t>
+            <t xml:space="preserve">2023-05-23</t>
           </r>
         </is>
       </c>
@@ -3373,7 +3373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5738000</t>
+            <t xml:space="preserve">1995000</t>
           </r>
         </is>
       </c>
@@ -3391,7 +3391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">315000</t>
+            <t xml:space="preserve">170000</t>
           </r>
         </is>
       </c>
@@ -3418,7 +3418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5423000</t>
+            <t xml:space="preserve">1825000</t>
           </r>
         </is>
       </c>
@@ -3436,7 +3436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">94</t>
+            <t xml:space="preserve">47</t>
           </r>
         </is>
       </c>
@@ -3447,7 +3447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-29</t>
+            <t xml:space="preserve">2023-05-22</t>
           </r>
         </is>
       </c>
@@ -3465,7 +3465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6236000</t>
+            <t xml:space="preserve">1971000</t>
           </r>
         </is>
       </c>
@@ -3483,7 +3483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">75000</t>
           </r>
         </is>
       </c>
@@ -3510,7 +3510,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6146000</t>
+            <t xml:space="preserve">1896000</t>
           </r>
         </is>
       </c>
@@ -3528,7 +3528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">113</t>
+            <t xml:space="preserve">41</t>
           </r>
         </is>
       </c>
@@ -3539,7 +3539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-28</t>
+            <t xml:space="preserve">2023-05-21</t>
           </r>
         </is>
       </c>
@@ -3557,7 +3557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3162000</t>
+            <t xml:space="preserve">3622000</t>
           </r>
         </is>
       </c>
@@ -3575,7 +3575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">280000</t>
           </r>
         </is>
       </c>
@@ -3602,7 +3602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3062000</t>
+            <t xml:space="preserve">3342000</t>
           </r>
         </is>
       </c>
@@ -3620,7 +3620,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">67</t>
+            <t xml:space="preserve">69</t>
           </r>
         </is>
       </c>
@@ -3631,7 +3631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-27</t>
+            <t xml:space="preserve">2023-05-20</t>
           </r>
         </is>
       </c>
@@ -3649,7 +3649,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3948000</t>
+            <t xml:space="preserve">2650000</t>
           </r>
         </is>
       </c>
@@ -3667,7 +3667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85000</t>
+            <t xml:space="preserve">295000</t>
           </r>
         </is>
       </c>
@@ -3694,7 +3694,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3863000</t>
+            <t xml:space="preserve">2355000</t>
           </r>
         </is>
       </c>
@@ -3712,7 +3712,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78</t>
+            <t xml:space="preserve">53</t>
           </r>
         </is>
       </c>
@@ -3723,7 +3723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-26</t>
+            <t xml:space="preserve">2023-05-19</t>
           </r>
         </is>
       </c>
@@ -3741,7 +3741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2776000</t>
+            <t xml:space="preserve">1771000</t>
           </r>
         </is>
       </c>
@@ -3759,7 +3759,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">295000</t>
+            <t xml:space="preserve">145000</t>
           </r>
         </is>
       </c>
@@ -3786,7 +3786,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2481000</t>
+            <t xml:space="preserve">1626000</t>
           </r>
         </is>
       </c>
@@ -3804,7 +3804,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">61</t>
+            <t xml:space="preserve">37</t>
           </r>
         </is>
       </c>
@@ -3815,7 +3815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-25</t>
+            <t xml:space="preserve">2023-05-18</t>
           </r>
         </is>
       </c>
@@ -3833,7 +3833,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2527000</t>
+            <t xml:space="preserve">2016000</t>
           </r>
         </is>
       </c>
@@ -3851,7 +3851,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">226000</t>
           </r>
         </is>
       </c>
@@ -3878,7 +3878,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2427000</t>
+            <t xml:space="preserve">1790000</t>
           </r>
         </is>
       </c>
@@ -3896,7 +3896,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">44</t>
           </r>
         </is>
       </c>
@@ -3907,7 +3907,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-24</t>
+            <t xml:space="preserve">2023-05-17</t>
           </r>
         </is>
       </c>
@@ -3925,7 +3925,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3002000</t>
+            <t xml:space="preserve">2422000</t>
           </r>
         </is>
       </c>
@@ -3943,7 +3943,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">225000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -3970,7 +3970,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2777000</t>
+            <t xml:space="preserve">2332000</t>
           </r>
         </is>
       </c>
@@ -3999,7 +3999,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-23</t>
+            <t xml:space="preserve">2023-05-16</t>
           </r>
         </is>
       </c>
@@ -4017,7 +4017,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5127000</t>
+            <t xml:space="preserve">1606000</t>
           </r>
         </is>
       </c>
@@ -4035,7 +4035,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">135000</t>
+            <t xml:space="preserve">182000</t>
           </r>
         </is>
       </c>
@@ -4062,7 +4062,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4992000</t>
+            <t xml:space="preserve">1424000</t>
           </r>
         </is>
       </c>
@@ -4080,7 +4080,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -4091,7 +4091,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-22</t>
+            <t xml:space="preserve">2023-05-15</t>
           </r>
         </is>
       </c>
@@ -4109,7 +4109,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4528000</t>
+            <t xml:space="preserve">2275000</t>
           </r>
         </is>
       </c>
@@ -4127,7 +4127,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">135000</t>
           </r>
         </is>
       </c>
@@ -4154,7 +4154,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4438000</t>
+            <t xml:space="preserve">2140000</t>
           </r>
         </is>
       </c>
@@ -4172,7 +4172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">87</t>
+            <t xml:space="preserve">35</t>
           </r>
         </is>
       </c>
@@ -4183,7 +4183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-21</t>
+            <t xml:space="preserve">2023-05-14</t>
           </r>
         </is>
       </c>
@@ -4201,7 +4201,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3372000</t>
+            <t xml:space="preserve">3535000</t>
           </r>
         </is>
       </c>
@@ -4219,7 +4219,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">250000</t>
+            <t xml:space="preserve">280000</t>
           </r>
         </is>
       </c>
@@ -4246,7 +4246,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3122000</t>
+            <t xml:space="preserve">3255000</t>
           </r>
         </is>
       </c>
@@ -4264,7 +4264,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">66</t>
+            <t xml:space="preserve">60</t>
           </r>
         </is>
       </c>
@@ -4275,7 +4275,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-20</t>
+            <t xml:space="preserve">2023-05-13</t>
           </r>
         </is>
       </c>
@@ -4293,7 +4293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3098000</t>
+            <t xml:space="preserve">3055000</t>
           </r>
         </is>
       </c>
@@ -4311,7 +4311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63000</t>
+            <t xml:space="preserve">300000</t>
           </r>
         </is>
       </c>
@@ -4338,7 +4338,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3035000</t>
+            <t xml:space="preserve">2755000</t>
           </r>
         </is>
       </c>
@@ -4356,7 +4356,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63</t>
+            <t xml:space="preserve">60</t>
           </r>
         </is>
       </c>
@@ -4367,7 +4367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-19</t>
+            <t xml:space="preserve">2023-05-12</t>
           </r>
         </is>
       </c>
@@ -4385,7 +4385,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2768000</t>
+            <t xml:space="preserve">2297000</t>
           </r>
         </is>
       </c>
@@ -4403,7 +4403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">102000</t>
           </r>
         </is>
       </c>
@@ -4430,7 +4430,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2668000</t>
+            <t xml:space="preserve">2195000</t>
           </r>
         </is>
       </c>
@@ -4448,7 +4448,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">53</t>
+            <t xml:space="preserve">50</t>
           </r>
         </is>
       </c>
@@ -4459,7 +4459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-18</t>
+            <t xml:space="preserve">2023-05-11</t>
           </r>
         </is>
       </c>
@@ -4477,7 +4477,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2814000</t>
+            <t xml:space="preserve">2093000</t>
           </r>
         </is>
       </c>
@@ -4495,7 +4495,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">130000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -4522,7 +4522,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2684000</t>
+            <t xml:space="preserve">1993000</t>
           </r>
         </is>
       </c>
@@ -4540,7 +4540,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">49</t>
+            <t xml:space="preserve">45</t>
           </r>
         </is>
       </c>
@@ -4551,7 +4551,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-17</t>
+            <t xml:space="preserve">2023-05-10</t>
           </r>
         </is>
       </c>
@@ -4569,7 +4569,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2428000</t>
+            <t xml:space="preserve">1937000</t>
           </r>
         </is>
       </c>
@@ -4587,7 +4587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">125000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -4614,7 +4614,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2303000</t>
+            <t xml:space="preserve">1847000</t>
           </r>
         </is>
       </c>
@@ -4632,7 +4632,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -4643,7 +4643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-16</t>
+            <t xml:space="preserve">2023-05-09</t>
           </r>
         </is>
       </c>
@@ -4661,7 +4661,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5256000</t>
+            <t xml:space="preserve">1781000</t>
           </r>
         </is>
       </c>
@@ -4679,7 +4679,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">315000</t>
+            <t xml:space="preserve">275000</t>
           </r>
         </is>
       </c>
@@ -4706,7 +4706,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4941000</t>
+            <t xml:space="preserve">1506000</t>
           </r>
         </is>
       </c>
@@ -4724,7 +4724,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">89</t>
+            <t xml:space="preserve">37</t>
           </r>
         </is>
       </c>
@@ -4735,7 +4735,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-15</t>
+            <t xml:space="preserve">2023-05-08</t>
           </r>
         </is>
       </c>
@@ -4753,7 +4753,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4791000</t>
+            <t xml:space="preserve">2355000</t>
           </r>
         </is>
       </c>
@@ -4771,7 +4771,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">245000</t>
           </r>
         </is>
       </c>
@@ -4798,7 +4798,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4711000</t>
+            <t xml:space="preserve">2110000</t>
           </r>
         </is>
       </c>
@@ -4816,7 +4816,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">46</t>
           </r>
         </is>
       </c>
@@ -4827,7 +4827,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-14</t>
+            <t xml:space="preserve">2023-05-07</t>
           </r>
         </is>
       </c>
@@ -4845,7 +4845,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3602000</t>
+            <t xml:space="preserve">4738000</t>
           </r>
         </is>
       </c>
@@ -4863,7 +4863,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">110000</t>
+            <t xml:space="preserve">290000</t>
           </r>
         </is>
       </c>
@@ -4890,7 +4890,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3492000</t>
+            <t xml:space="preserve">4448000</t>
           </r>
         </is>
       </c>
@@ -4908,7 +4908,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65</t>
+            <t xml:space="preserve">80</t>
           </r>
         </is>
       </c>
@@ -4919,7 +4919,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-13</t>
+            <t xml:space="preserve">2023-05-06</t>
           </r>
         </is>
       </c>
@@ -4937,7 +4937,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3098000</t>
+            <t xml:space="preserve">4254000</t>
           </r>
         </is>
       </c>
@@ -4955,7 +4955,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">245000</t>
+            <t xml:space="preserve">345000</t>
           </r>
         </is>
       </c>
@@ -4982,7 +4982,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2853000</t>
+            <t xml:space="preserve">3909000</t>
           </r>
         </is>
       </c>
@@ -5000,7 +5000,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">58</t>
+            <t xml:space="preserve">88</t>
           </r>
         </is>
       </c>
@@ -5011,7 +5011,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-12</t>
+            <t xml:space="preserve">2023-05-05</t>
           </r>
         </is>
       </c>
@@ -5029,7 +5029,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3083000</t>
+            <t xml:space="preserve">2326000</t>
           </r>
         </is>
       </c>
@@ -5047,7 +5047,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">325000</t>
           </r>
         </is>
       </c>
@@ -5074,7 +5074,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3003000</t>
+            <t xml:space="preserve">2001000</t>
           </r>
         </is>
       </c>
@@ -5092,7 +5092,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">66</t>
+            <t xml:space="preserve">50</t>
           </r>
         </is>
       </c>
@@ -5103,7 +5103,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-11</t>
+            <t xml:space="preserve">2023-05-04</t>
           </r>
         </is>
       </c>
@@ -5121,7 +5121,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3096000</t>
+            <t xml:space="preserve">1605000</t>
           </r>
         </is>
       </c>
@@ -5139,7 +5139,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">92000</t>
+            <t xml:space="preserve">40000</t>
           </r>
         </is>
       </c>
@@ -5166,7 +5166,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3004000</t>
+            <t xml:space="preserve">1565000</t>
           </r>
         </is>
       </c>
@@ -5184,7 +5184,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">31</t>
           </r>
         </is>
       </c>
@@ -5195,7 +5195,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-10</t>
+            <t xml:space="preserve">2023-05-03</t>
           </r>
         </is>
       </c>
@@ -5213,7 +5213,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3573000</t>
+            <t xml:space="preserve">1879000</t>
           </r>
         </is>
       </c>
@@ -5231,7 +5231,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">60000</t>
           </r>
         </is>
       </c>
@@ -5258,7 +5258,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3473000</t>
+            <t xml:space="preserve">1819000</t>
           </r>
         </is>
       </c>
@@ -5276,7 +5276,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">76</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -5287,7 +5287,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-09</t>
+            <t xml:space="preserve">2023-05-02</t>
           </r>
         </is>
       </c>
@@ -5305,7 +5305,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4361000</t>
+            <t xml:space="preserve">1815000</t>
           </r>
         </is>
       </c>
@@ -5323,7 +5323,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">270000</t>
+            <t xml:space="preserve">380000</t>
           </r>
         </is>
       </c>
@@ -5350,7 +5350,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4091000</t>
+            <t xml:space="preserve">1435000</t>
           </r>
         </is>
       </c>
@@ -5368,7 +5368,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">70</t>
+            <t xml:space="preserve">36</t>
           </r>
         </is>
       </c>
@@ -5379,7 +5379,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-08</t>
+            <t xml:space="preserve">2023-05-01</t>
           </r>
         </is>
       </c>
@@ -5397,7 +5397,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2805000</t>
+            <t xml:space="preserve">3293000</t>
           </r>
         </is>
       </c>
@@ -5415,7 +5415,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">340000</t>
+            <t xml:space="preserve">465000</t>
           </r>
         </is>
       </c>
@@ -5442,7 +5442,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2465000</t>
+            <t xml:space="preserve">2828000</t>
           </r>
         </is>
       </c>
@@ -5460,7 +5460,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -5471,7 +5471,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-07</t>
+            <t xml:space="preserve">2023-04-30</t>
           </r>
         </is>
       </c>
@@ -5489,7 +5489,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1787000</t>
+            <t xml:space="preserve">3560000</t>
           </r>
         </is>
       </c>
@@ -5507,7 +5507,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">195000</t>
           </r>
         </is>
       </c>
@@ -5534,7 +5534,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1587000</t>
+            <t xml:space="preserve">3365000</t>
           </r>
         </is>
       </c>
@@ -5552,7 +5552,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">37</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -5563,7 +5563,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-06</t>
+            <t xml:space="preserve">2023-04-29</t>
           </r>
         </is>
       </c>
@@ -5581,7 +5581,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2623000</t>
+            <t xml:space="preserve">4692000</t>
           </r>
         </is>
       </c>
@@ -5599,7 +5599,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">155000</t>
           </r>
         </is>
       </c>
@@ -5626,7 +5626,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2543000</t>
+            <t xml:space="preserve">4537000</t>
           </r>
         </is>
       </c>
@@ -5644,7 +5644,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">46</t>
+            <t xml:space="preserve">89</t>
           </r>
         </is>
       </c>
@@ -5655,7 +5655,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-05</t>
+            <t xml:space="preserve">2023-04-28</t>
           </r>
         </is>
       </c>
@@ -5673,7 +5673,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2893000</t>
+            <t xml:space="preserve">2315000</t>
           </r>
         </is>
       </c>
@@ -5691,7 +5691,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">955000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -5718,7 +5718,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1938000</t>
+            <t xml:space="preserve">2300000</t>
           </r>
         </is>
       </c>
@@ -5736,7 +5736,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -5747,7 +5747,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-04</t>
+            <t xml:space="preserve">2023-04-27</t>
           </r>
         </is>
       </c>
@@ -5765,7 +5765,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2901000</t>
+            <t xml:space="preserve">2300000</t>
           </r>
         </is>
       </c>
@@ -5783,7 +5783,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">140000</t>
+            <t xml:space="preserve">75000</t>
           </r>
         </is>
       </c>
@@ -5810,7 +5810,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2761000</t>
+            <t xml:space="preserve">2225000</t>
           </r>
         </is>
       </c>
@@ -5828,7 +5828,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">61</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -5839,7 +5839,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-03</t>
+            <t xml:space="preserve">2023-04-26</t>
           </r>
         </is>
       </c>
@@ -5857,7 +5857,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2766000</t>
+            <t xml:space="preserve">2169000</t>
           </r>
         </is>
       </c>
@@ -5875,7 +5875,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">325000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -5902,7 +5902,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2441000</t>
+            <t xml:space="preserve">2149000</t>
           </r>
         </is>
       </c>
@@ -5920,7 +5920,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">57</t>
+            <t xml:space="preserve">46</t>
           </r>
         </is>
       </c>
@@ -5931,7 +5931,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-02</t>
+            <t xml:space="preserve">2023-04-25</t>
           </r>
         </is>
       </c>
@@ -5949,7 +5949,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5873000</t>
+            <t xml:space="preserve">1394000</t>
           </r>
         </is>
       </c>
@@ -5967,7 +5967,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">315000</t>
+            <t xml:space="preserve">178000</t>
           </r>
         </is>
       </c>
@@ -5994,7 +5994,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5558000</t>
+            <t xml:space="preserve">1216000</t>
           </r>
         </is>
       </c>
@@ -6012,7 +6012,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">94</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -6023,7 +6023,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-04-01</t>
+            <t xml:space="preserve">2023-04-24</t>
           </r>
         </is>
       </c>
@@ -6041,7 +6041,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5116000</t>
+            <t xml:space="preserve">1772000</t>
           </r>
         </is>
       </c>
@@ -6059,7 +6059,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">415000</t>
+            <t xml:space="preserve">60000</t>
           </r>
         </is>
       </c>
@@ -6086,7 +6086,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4701000</t>
+            <t xml:space="preserve">1712000</t>
           </r>
         </is>
       </c>
@@ -6104,7 +6104,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">37</t>
           </r>
         </is>
       </c>
@@ -6115,7 +6115,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-31</t>
+            <t xml:space="preserve">2023-04-23</t>
           </r>
         </is>
       </c>
@@ -6133,7 +6133,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3637000</t>
+            <t xml:space="preserve">3919000</t>
           </r>
         </is>
       </c>
@@ -6151,7 +6151,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">140000</t>
+            <t xml:space="preserve">180000</t>
           </r>
         </is>
       </c>
@@ -6178,7 +6178,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3497000</t>
+            <t xml:space="preserve">3739000</t>
           </r>
         </is>
       </c>
@@ -6196,7 +6196,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">72</t>
           </r>
         </is>
       </c>
@@ -6207,7 +6207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-30</t>
+            <t xml:space="preserve">2023-04-22</t>
           </r>
         </is>
       </c>
@@ -6225,7 +6225,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2625000</t>
+            <t xml:space="preserve">3699000</t>
           </r>
         </is>
       </c>
@@ -6243,7 +6243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">87000</t>
+            <t xml:space="preserve">215000</t>
           </r>
         </is>
       </c>
@@ -6270,7 +6270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2538000</t>
+            <t xml:space="preserve">3484000</t>
           </r>
         </is>
       </c>
@@ -6288,7 +6288,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">56</t>
+            <t xml:space="preserve">74</t>
           </r>
         </is>
       </c>
@@ -6299,7 +6299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-29</t>
+            <t xml:space="preserve">2023-04-21</t>
           </r>
         </is>
       </c>
@@ -6317,7 +6317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2921000</t>
+            <t xml:space="preserve">2129000</t>
           </r>
         </is>
       </c>
@@ -6335,7 +6335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">364000</t>
           </r>
         </is>
       </c>
@@ -6362,7 +6362,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2841000</t>
+            <t xml:space="preserve">1765000</t>
           </r>
         </is>
       </c>
@@ -6380,7 +6380,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">41</t>
           </r>
         </is>
       </c>
@@ -6391,7 +6391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-28</t>
+            <t xml:space="preserve">2023-04-20</t>
           </r>
         </is>
       </c>
@@ -6409,7 +6409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2583000</t>
+            <t xml:space="preserve">2081000</t>
           </r>
         </is>
       </c>
@@ -6427,7 +6427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">115000</t>
           </r>
         </is>
       </c>
@@ -6454,7 +6454,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2583000</t>
+            <t xml:space="preserve">1966000</t>
           </r>
         </is>
       </c>
@@ -6472,7 +6472,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">47</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -6483,7 +6483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-27</t>
+            <t xml:space="preserve">2023-04-19</t>
           </r>
         </is>
       </c>
@@ -6501,7 +6501,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3342000</t>
+            <t xml:space="preserve">2244000</t>
           </r>
         </is>
       </c>
@@ -6519,7 +6519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">305000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -6546,7 +6546,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3037000</t>
+            <t xml:space="preserve">2224000</t>
           </r>
         </is>
       </c>
@@ -6564,7 +6564,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">64</t>
+            <t xml:space="preserve">46</t>
           </r>
         </is>
       </c>
@@ -6575,7 +6575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-26</t>
+            <t xml:space="preserve">2023-04-18</t>
           </r>
         </is>
       </c>
@@ -6593,7 +6593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3868000</t>
+            <t xml:space="preserve">1211000</t>
           </r>
         </is>
       </c>
@@ -6611,7 +6611,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">135000</t>
+            <t xml:space="preserve">130000</t>
           </r>
         </is>
       </c>
@@ -6638,7 +6638,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3733000</t>
+            <t xml:space="preserve">1081000</t>
           </r>
         </is>
       </c>
@@ -6656,7 +6656,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75</t>
+            <t xml:space="preserve">27</t>
           </r>
         </is>
       </c>
@@ -6667,7 +6667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-25</t>
+            <t xml:space="preserve">2023-04-17</t>
           </r>
         </is>
       </c>
@@ -6685,7 +6685,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3739000</t>
+            <t xml:space="preserve">2074000</t>
           </r>
         </is>
       </c>
@@ -6703,7 +6703,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -6730,7 +6730,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3639000</t>
+            <t xml:space="preserve">2054000</t>
           </r>
         </is>
       </c>
@@ -6748,7 +6748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78</t>
+            <t xml:space="preserve">40</t>
           </r>
         </is>
       </c>
@@ -6759,7 +6759,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-24</t>
+            <t xml:space="preserve">2023-04-16</t>
           </r>
         </is>
       </c>
@@ -6777,7 +6777,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3667000</t>
+            <t xml:space="preserve">4662000</t>
           </r>
         </is>
       </c>
@@ -6795,7 +6795,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">290000</t>
           </r>
         </is>
       </c>
@@ -6822,7 +6822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3507000</t>
+            <t xml:space="preserve">4372000</t>
           </r>
         </is>
       </c>
@@ -6840,7 +6840,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">74</t>
+            <t xml:space="preserve">81</t>
           </r>
         </is>
       </c>
@@ -6851,7 +6851,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-23</t>
+            <t xml:space="preserve">2023-04-15</t>
           </r>
         </is>
       </c>
@@ -6869,7 +6869,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2748000</t>
+            <t xml:space="preserve">4295000</t>
           </r>
         </is>
       </c>
@@ -6887,7 +6887,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">92000</t>
+            <t xml:space="preserve">310000</t>
           </r>
         </is>
       </c>
@@ -6914,7 +6914,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2656000</t>
+            <t xml:space="preserve">3985000</t>
           </r>
         </is>
       </c>
@@ -6932,7 +6932,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">59</t>
+            <t xml:space="preserve">83</t>
           </r>
         </is>
       </c>
@@ -6943,7 +6943,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-22</t>
+            <t xml:space="preserve">2023-04-14</t>
           </r>
         </is>
       </c>
@@ -6961,7 +6961,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3381000</t>
+            <t xml:space="preserve">2367000</t>
           </r>
         </is>
       </c>
@@ -6979,7 +6979,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">265000</t>
+            <t xml:space="preserve">226000</t>
           </r>
         </is>
       </c>
@@ -7006,7 +7006,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3116000</t>
+            <t xml:space="preserve">2141000</t>
           </r>
         </is>
       </c>
@@ -7024,7 +7024,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">61</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -7035,7 +7035,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-21</t>
+            <t xml:space="preserve">2023-04-13</t>
           </r>
         </is>
       </c>
@@ -7053,7 +7053,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2735000</t>
+            <t xml:space="preserve">1873000</t>
           </r>
         </is>
       </c>
@@ -7071,7 +7071,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">190000</t>
+            <t xml:space="preserve">145000</t>
           </r>
         </is>
       </c>
@@ -7098,7 +7098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2545000</t>
+            <t xml:space="preserve">1728000</t>
           </r>
         </is>
       </c>
@@ -7116,7 +7116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">61</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -7127,7 +7127,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-20</t>
+            <t xml:space="preserve">2023-04-12</t>
           </r>
         </is>
       </c>
@@ -7145,7 +7145,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2405000</t>
+            <t xml:space="preserve">2716000</t>
           </r>
         </is>
       </c>
@@ -7163,7 +7163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">165000</t>
+            <t xml:space="preserve">150000</t>
           </r>
         </is>
       </c>
@@ -7190,7 +7190,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2240000</t>
+            <t xml:space="preserve">2566000</t>
           </r>
         </is>
       </c>
@@ -7208,7 +7208,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">52</t>
+            <t xml:space="preserve">50</t>
           </r>
         </is>
       </c>
@@ -7219,7 +7219,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-19</t>
+            <t xml:space="preserve">2023-04-11</t>
           </r>
         </is>
       </c>
@@ -7237,7 +7237,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5687000</t>
+            <t xml:space="preserve">2584000</t>
           </r>
         </is>
       </c>
@@ -7255,7 +7255,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">585000</t>
+            <t xml:space="preserve">225000</t>
           </r>
         </is>
       </c>
@@ -7282,7 +7282,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5102000</t>
+            <t xml:space="preserve">2359000</t>
           </r>
         </is>
       </c>
@@ -7300,7 +7300,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">106</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -7311,7 +7311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-18</t>
+            <t xml:space="preserve">2023-04-10</t>
           </r>
         </is>
       </c>
@@ -7329,7 +7329,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3770000</t>
+            <t xml:space="preserve">2077000</t>
           </r>
         </is>
       </c>
@@ -7347,7 +7347,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">170000</t>
+            <t xml:space="preserve">70000</t>
           </r>
         </is>
       </c>
@@ -7374,7 +7374,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3600000</t>
+            <t xml:space="preserve">2007000</t>
           </r>
         </is>
       </c>
@@ -7392,7 +7392,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">67</t>
+            <t xml:space="preserve">44</t>
           </r>
         </is>
       </c>
@@ -7403,7 +7403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-17</t>
+            <t xml:space="preserve">2023-04-09</t>
           </r>
         </is>
       </c>
@@ -7421,7 +7421,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3117000</t>
+            <t xml:space="preserve">2069000</t>
           </r>
         </is>
       </c>
@@ -7439,7 +7439,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">325000</t>
+            <t xml:space="preserve">140000</t>
           </r>
         </is>
       </c>
@@ -7466,7 +7466,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2792000</t>
+            <t xml:space="preserve">1929000</t>
           </r>
         </is>
       </c>
@@ -7484,7 +7484,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">64</t>
+            <t xml:space="preserve">39</t>
           </r>
         </is>
       </c>
@@ -7495,7 +7495,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-16</t>
+            <t xml:space="preserve">2023-04-08</t>
           </r>
         </is>
       </c>
@@ -7513,7 +7513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2632000</t>
+            <t xml:space="preserve">2140000</t>
           </r>
         </is>
       </c>
@@ -7531,7 +7531,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">475000</t>
           </r>
         </is>
       </c>
@@ -7558,7 +7558,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2552000</t>
+            <t xml:space="preserve">1665000</t>
           </r>
         </is>
       </c>
@@ -7576,7 +7576,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">53</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -7587,7 +7587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-15</t>
+            <t xml:space="preserve">2023-04-07</t>
           </r>
         </is>
       </c>
@@ -7605,7 +7605,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3895000</t>
+            <t xml:space="preserve">3807000</t>
           </r>
         </is>
       </c>
@@ -7623,7 +7623,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">295000</t>
+            <t xml:space="preserve">205000</t>
           </r>
         </is>
       </c>
@@ -7650,7 +7650,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3600000</t>
+            <t xml:space="preserve">3602000</t>
           </r>
         </is>
       </c>
@@ -7668,7 +7668,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">77</t>
+            <t xml:space="preserve">63</t>
           </r>
         </is>
       </c>
@@ -7679,7 +7679,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-14</t>
+            <t xml:space="preserve">2023-04-06</t>
           </r>
         </is>
       </c>
@@ -7697,7 +7697,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3643000</t>
+            <t xml:space="preserve">1579000</t>
           </r>
         </is>
       </c>
@@ -7715,7 +7715,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -7742,7 +7742,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3483000</t>
+            <t xml:space="preserve">1564000</t>
           </r>
         </is>
       </c>
@@ -7760,7 +7760,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65</t>
+            <t xml:space="preserve">29</t>
           </r>
         </is>
       </c>
@@ -7771,7 +7771,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-13</t>
+            <t xml:space="preserve">2023-04-05</t>
           </r>
         </is>
       </c>
@@ -7789,7 +7789,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3193000</t>
+            <t xml:space="preserve">2524000</t>
           </r>
         </is>
       </c>
@@ -7807,7 +7807,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">235000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -7834,7 +7834,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2958000</t>
+            <t xml:space="preserve">2504000</t>
           </r>
         </is>
       </c>
@@ -7852,7 +7852,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -7863,7 +7863,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-12</t>
+            <t xml:space="preserve">2023-04-04</t>
           </r>
         </is>
       </c>
@@ -7881,7 +7881,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5590000</t>
+            <t xml:space="preserve">2345000</t>
           </r>
         </is>
       </c>
@@ -7899,7 +7899,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">45000</t>
+            <t xml:space="preserve">345000</t>
           </r>
         </is>
       </c>
@@ -7926,7 +7926,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5545000</t>
+            <t xml:space="preserve">2000000</t>
           </r>
         </is>
       </c>
@@ -7944,7 +7944,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -7955,7 +7955,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-11</t>
+            <t xml:space="preserve">2023-04-03</t>
           </r>
         </is>
       </c>
@@ -7973,7 +7973,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4967000</t>
+            <t xml:space="preserve">1723000</t>
           </r>
         </is>
       </c>
@@ -7991,7 +7991,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">434000</t>
           </r>
         </is>
       </c>
@@ -8018,7 +8018,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4787000</t>
+            <t xml:space="preserve">1289000</t>
           </r>
         </is>
       </c>
@@ -8036,7 +8036,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -8047,7 +8047,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-10</t>
+            <t xml:space="preserve">2023-04-02</t>
           </r>
         </is>
       </c>
@@ -8065,7 +8065,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3238000</t>
+            <t xml:space="preserve">3433000</t>
           </r>
         </is>
       </c>
@@ -8083,7 +8083,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">127000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -8110,7 +8110,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3111000</t>
+            <t xml:space="preserve">3233000</t>
           </r>
         </is>
       </c>
@@ -8128,7 +8128,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">67</t>
+            <t xml:space="preserve">58</t>
           </r>
         </is>
       </c>
@@ -8139,7 +8139,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-09</t>
+            <t xml:space="preserve">2023-04-01</t>
           </r>
         </is>
       </c>
@@ -8157,7 +8157,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2832000</t>
+            <t xml:space="preserve">2540000</t>
           </r>
         </is>
       </c>
@@ -8175,7 +8175,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">555000</t>
           </r>
         </is>
       </c>
@@ -8202,7 +8202,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2832000</t>
+            <t xml:space="preserve">1985000</t>
           </r>
         </is>
       </c>
@@ -8220,7 +8220,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">52</t>
           </r>
         </is>
       </c>
@@ -8231,7 +8231,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-08</t>
+            <t xml:space="preserve">2023-03-31</t>
           </r>
         </is>
       </c>
@@ -8249,7 +8249,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3289000</t>
+            <t xml:space="preserve">2296000</t>
           </r>
         </is>
       </c>
@@ -8267,7 +8267,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">160000</t>
           </r>
         </is>
       </c>
@@ -8294,7 +8294,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3289000</t>
+            <t xml:space="preserve">2136000</t>
           </r>
         </is>
       </c>
@@ -8312,7 +8312,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">59</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -8323,7 +8323,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-07</t>
+            <t xml:space="preserve">2023-03-30</t>
           </r>
         </is>
       </c>
@@ -8341,7 +8341,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2846000</t>
+            <t xml:space="preserve">2254000</t>
           </r>
         </is>
       </c>
@@ -8359,7 +8359,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30000</t>
+            <t xml:space="preserve">220000</t>
           </r>
         </is>
       </c>
@@ -8386,7 +8386,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2816000</t>
+            <t xml:space="preserve">2034000</t>
           </r>
         </is>
       </c>
@@ -8404,7 +8404,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -8415,7 +8415,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-06</t>
+            <t xml:space="preserve">2023-03-29</t>
           </r>
         </is>
       </c>
@@ -8433,7 +8433,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3720000</t>
+            <t xml:space="preserve">2108000</t>
           </r>
         </is>
       </c>
@@ -8451,7 +8451,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">785000</t>
+            <t xml:space="preserve">45000</t>
           </r>
         </is>
       </c>
@@ -8478,7 +8478,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2935000</t>
+            <t xml:space="preserve">2063000</t>
           </r>
         </is>
       </c>
@@ -8496,7 +8496,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">69</t>
+            <t xml:space="preserve">44</t>
           </r>
         </is>
       </c>
@@ -8507,7 +8507,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-05</t>
+            <t xml:space="preserve">2023-03-28</t>
           </r>
         </is>
       </c>
@@ -8525,7 +8525,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5339000</t>
+            <t xml:space="preserve">1750000</t>
           </r>
         </is>
       </c>
@@ -8543,7 +8543,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">135000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -8570,7 +8570,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5204000</t>
+            <t xml:space="preserve">1660000</t>
           </r>
         </is>
       </c>
@@ -8588,7 +8588,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">87</t>
+            <t xml:space="preserve">35</t>
           </r>
         </is>
       </c>
@@ -8599,7 +8599,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-04</t>
+            <t xml:space="preserve">2023-03-27</t>
           </r>
         </is>
       </c>
@@ -8617,7 +8617,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5007000</t>
+            <t xml:space="preserve">1777000</t>
           </r>
         </is>
       </c>
@@ -8635,7 +8635,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">45000</t>
+            <t xml:space="preserve">65000</t>
           </r>
         </is>
       </c>
@@ -8662,7 +8662,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4962000</t>
+            <t xml:space="preserve">1712000</t>
           </r>
         </is>
       </c>
@@ -8680,7 +8680,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90</t>
+            <t xml:space="preserve">35</t>
           </r>
         </is>
       </c>
@@ -8691,7 +8691,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-03</t>
+            <t xml:space="preserve">2023-03-26</t>
           </r>
         </is>
       </c>
@@ -8709,7 +8709,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3026000</t>
+            <t xml:space="preserve">6738000</t>
           </r>
         </is>
       </c>
@@ -8727,7 +8727,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">230000</t>
+            <t xml:space="preserve">180000</t>
           </r>
         </is>
       </c>
@@ -8754,7 +8754,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2796000</t>
+            <t xml:space="preserve">6558000</t>
           </r>
         </is>
       </c>
@@ -8772,7 +8772,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63</t>
+            <t xml:space="preserve">76</t>
           </r>
         </is>
       </c>
@@ -8783,7 +8783,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-02</t>
+            <t xml:space="preserve">2023-03-25</t>
           </r>
         </is>
       </c>
@@ -8801,7 +8801,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3059000</t>
+            <t xml:space="preserve">3536000</t>
           </r>
         </is>
       </c>
@@ -8819,7 +8819,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">40000</t>
+            <t xml:space="preserve">335000</t>
           </r>
         </is>
       </c>
@@ -8846,7 +8846,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3019000</t>
+            <t xml:space="preserve">3201000</t>
           </r>
         </is>
       </c>
@@ -8864,7 +8864,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">64</t>
+            <t xml:space="preserve">65</t>
           </r>
         </is>
       </c>
@@ -8875,7 +8875,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-03-01</t>
+            <t xml:space="preserve">2023-03-24</t>
           </r>
         </is>
       </c>
@@ -8893,7 +8893,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3416000</t>
+            <t xml:space="preserve">1863000</t>
           </r>
         </is>
       </c>
@@ -8911,7 +8911,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">275000</t>
+            <t xml:space="preserve">245000</t>
           </r>
         </is>
       </c>
@@ -8938,7 +8938,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3141000</t>
+            <t xml:space="preserve">1618000</t>
           </r>
         </is>
       </c>
@@ -8956,7 +8956,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">72</t>
+            <t xml:space="preserve">37</t>
           </r>
         </is>
       </c>
@@ -8967,7 +8967,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-28</t>
+            <t xml:space="preserve">2023-03-23</t>
           </r>
         </is>
       </c>
@@ -8985,7 +8985,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2930000</t>
+            <t xml:space="preserve">2447000</t>
           </r>
         </is>
       </c>
@@ -9003,7 +9003,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">125000</t>
           </r>
         </is>
       </c>
@@ -9030,7 +9030,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2930000</t>
+            <t xml:space="preserve">2322000</t>
           </r>
         </is>
       </c>
@@ -9048,7 +9048,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">57</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -9059,7 +9059,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-27</t>
+            <t xml:space="preserve">2023-03-22</t>
           </r>
         </is>
       </c>
@@ -9077,7 +9077,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2933000</t>
+            <t xml:space="preserve">2086000</t>
           </r>
         </is>
       </c>
@@ -9095,7 +9095,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">40000</t>
           </r>
         </is>
       </c>
@@ -9122,7 +9122,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2878000</t>
+            <t xml:space="preserve">2046000</t>
           </r>
         </is>
       </c>
@@ -9140,7 +9140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">54</t>
+            <t xml:space="preserve">39</t>
           </r>
         </is>
       </c>
@@ -9151,7 +9151,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-26</t>
+            <t xml:space="preserve">2023-03-21</t>
           </r>
         </is>
       </c>
@@ -9169,7 +9169,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4574000</t>
+            <t xml:space="preserve">2192000</t>
           </r>
         </is>
       </c>
@@ -9214,7 +9214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4484000</t>
+            <t xml:space="preserve">2102000</t>
           </r>
         </is>
       </c>
@@ -9232,7 +9232,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">87</t>
+            <t xml:space="preserve">38</t>
           </r>
         </is>
       </c>
@@ -9243,7 +9243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-25</t>
+            <t xml:space="preserve">2023-03-20</t>
           </r>
         </is>
       </c>
@@ -9261,7 +9261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3603000</t>
+            <t xml:space="preserve">2182000</t>
           </r>
         </is>
       </c>
@@ -9279,7 +9279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75000</t>
+            <t xml:space="preserve">388000</t>
           </r>
         </is>
       </c>
@@ -9306,7 +9306,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3528000</t>
+            <t xml:space="preserve">1794000</t>
           </r>
         </is>
       </c>
@@ -9324,7 +9324,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">72</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -9335,7 +9335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-24</t>
+            <t xml:space="preserve">2023-03-19</t>
           </r>
         </is>
       </c>
@@ -9353,7 +9353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3317000</t>
+            <t xml:space="preserve">4190000</t>
           </r>
         </is>
       </c>
@@ -9371,7 +9371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">150000</t>
+            <t xml:space="preserve">285000</t>
           </r>
         </is>
       </c>
@@ -9398,7 +9398,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3167000</t>
+            <t xml:space="preserve">3905000</t>
           </r>
         </is>
       </c>
@@ -9416,7 +9416,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">66</t>
+            <t xml:space="preserve">74</t>
           </r>
         </is>
       </c>
@@ -9427,7 +9427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-23</t>
+            <t xml:space="preserve">2023-03-18</t>
           </r>
         </is>
       </c>
@@ -9445,7 +9445,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3459000</t>
+            <t xml:space="preserve">2765000</t>
           </r>
         </is>
       </c>
@@ -9463,7 +9463,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">215000</t>
+            <t xml:space="preserve">395000</t>
           </r>
         </is>
       </c>
@@ -9490,7 +9490,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3244000</t>
+            <t xml:space="preserve">2370000</t>
           </r>
         </is>
       </c>
@@ -9508,7 +9508,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">66</t>
+            <t xml:space="preserve">58</t>
           </r>
         </is>
       </c>
@@ -9519,7 +9519,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-22</t>
+            <t xml:space="preserve">2023-03-17</t>
           </r>
         </is>
       </c>
@@ -9537,7 +9537,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2413000</t>
+            <t xml:space="preserve">2738000</t>
           </r>
         </is>
       </c>
@@ -9555,7 +9555,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">87000</t>
+            <t xml:space="preserve">230000</t>
           </r>
         </is>
       </c>
@@ -9582,7 +9582,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2326000</t>
+            <t xml:space="preserve">2508000</t>
           </r>
         </is>
       </c>
@@ -9600,7 +9600,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">49</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -9611,7 +9611,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-21</t>
+            <t xml:space="preserve">2023-03-16</t>
           </r>
         </is>
       </c>
@@ -9629,7 +9629,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2559000</t>
+            <t xml:space="preserve">2070000</t>
           </r>
         </is>
       </c>
@@ -9647,7 +9647,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75000</t>
+            <t xml:space="preserve">95000</t>
           </r>
         </is>
       </c>
@@ -9674,7 +9674,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2484000</t>
+            <t xml:space="preserve">1975000</t>
           </r>
         </is>
       </c>
@@ -9692,7 +9692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">54</t>
+            <t xml:space="preserve">41</t>
           </r>
         </is>
       </c>
@@ -9703,7 +9703,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-20</t>
+            <t xml:space="preserve">2023-03-15</t>
           </r>
         </is>
       </c>
@@ -9721,7 +9721,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2959000</t>
+            <t xml:space="preserve">2077000</t>
           </r>
         </is>
       </c>
@@ -9739,7 +9739,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">105000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -9766,7 +9766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2854000</t>
+            <t xml:space="preserve">2067000</t>
           </r>
         </is>
       </c>
@@ -9784,7 +9784,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63</t>
+            <t xml:space="preserve">34</t>
           </r>
         </is>
       </c>
@@ -9795,7 +9795,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-19</t>
+            <t xml:space="preserve">2023-03-14</t>
           </r>
         </is>
       </c>
@@ -9813,7 +9813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5023000</t>
+            <t xml:space="preserve">2196000</t>
           </r>
         </is>
       </c>
@@ -9831,7 +9831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">255000</t>
+            <t xml:space="preserve">210000</t>
           </r>
         </is>
       </c>
@@ -9858,7 +9858,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4768000</t>
+            <t xml:space="preserve">1986000</t>
           </r>
         </is>
       </c>
@@ -9876,7 +9876,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80</t>
+            <t xml:space="preserve">45</t>
           </r>
         </is>
       </c>
@@ -9887,7 +9887,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-18</t>
+            <t xml:space="preserve">2023-03-13</t>
           </r>
         </is>
       </c>
@@ -9905,7 +9905,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3677000</t>
+            <t xml:space="preserve">1359000</t>
           </r>
         </is>
       </c>
@@ -9923,7 +9923,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">155000</t>
+            <t xml:space="preserve">339000</t>
           </r>
         </is>
       </c>
@@ -9950,7 +9950,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3522000</t>
+            <t xml:space="preserve">1020000</t>
           </r>
         </is>
       </c>
@@ -9968,7 +9968,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">29</t>
           </r>
         </is>
       </c>
@@ -9979,7 +9979,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-17</t>
+            <t xml:space="preserve">2023-03-12</t>
           </r>
         </is>
       </c>
@@ -9997,7 +9997,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3684000</t>
+            <t xml:space="preserve">3312000</t>
           </r>
         </is>
       </c>
@@ -10015,7 +10015,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75000</t>
+            <t xml:space="preserve">135000</t>
           </r>
         </is>
       </c>
@@ -10042,7 +10042,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3609000</t>
+            <t xml:space="preserve">3177000</t>
           </r>
         </is>
       </c>
@@ -10060,7 +10060,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">70</t>
+            <t xml:space="preserve">59</t>
           </r>
         </is>
       </c>
@@ -10071,7 +10071,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-16</t>
+            <t xml:space="preserve">2023-03-11</t>
           </r>
         </is>
       </c>
@@ -10089,7 +10089,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2511000</t>
+            <t xml:space="preserve">3849000</t>
           </r>
         </is>
       </c>
@@ -10107,7 +10107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">225000</t>
           </r>
         </is>
       </c>
@@ -10134,7 +10134,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2431000</t>
+            <t xml:space="preserve">3624000</t>
           </r>
         </is>
       </c>
@@ -10152,7 +10152,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">53</t>
+            <t xml:space="preserve">77</t>
           </r>
         </is>
       </c>
@@ -10163,7 +10163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-15</t>
+            <t xml:space="preserve">2023-03-10</t>
           </r>
         </is>
       </c>
@@ -10181,7 +10181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4148000</t>
+            <t xml:space="preserve">2244000</t>
           </r>
         </is>
       </c>
@@ -10199,7 +10199,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -10226,7 +10226,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3988000</t>
+            <t xml:space="preserve">2229000</t>
           </r>
         </is>
       </c>
@@ -10244,7 +10244,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">83</t>
+            <t xml:space="preserve">43</t>
           </r>
         </is>
       </c>
@@ -10255,7 +10255,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-14</t>
+            <t xml:space="preserve">2023-03-09</t>
           </r>
         </is>
       </c>
@@ -10273,7 +10273,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4655000</t>
+            <t xml:space="preserve">1219000</t>
           </r>
         </is>
       </c>
@@ -10291,7 +10291,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">80000</t>
+            <t xml:space="preserve">195000</t>
           </r>
         </is>
       </c>
@@ -10318,7 +10318,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4575000</t>
+            <t xml:space="preserve">1024000</t>
           </r>
         </is>
       </c>
@@ -10336,7 +10336,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">88</t>
+            <t xml:space="preserve">31</t>
           </r>
         </is>
       </c>
@@ -10347,7 +10347,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-13</t>
+            <t xml:space="preserve">2023-03-08</t>
           </r>
         </is>
       </c>
@@ -10365,7 +10365,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3217000</t>
+            <t xml:space="preserve">1840000</t>
           </r>
         </is>
       </c>
@@ -10383,7 +10383,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28000</t>
+            <t xml:space="preserve">170000</t>
           </r>
         </is>
       </c>
@@ -10410,7 +10410,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3189000</t>
+            <t xml:space="preserve">1670000</t>
           </r>
         </is>
       </c>
@@ -10428,7 +10428,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">67</t>
+            <t xml:space="preserve">38</t>
           </r>
         </is>
       </c>
@@ -10439,7 +10439,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-12</t>
+            <t xml:space="preserve">2023-03-07</t>
           </r>
         </is>
       </c>
@@ -10457,7 +10457,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5037000</t>
+            <t xml:space="preserve">2600000</t>
           </r>
         </is>
       </c>
@@ -10475,7 +10475,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">115000</t>
           </r>
         </is>
       </c>
@@ -10502,7 +10502,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4857000</t>
+            <t xml:space="preserve">2485000</t>
           </r>
         </is>
       </c>
@@ -10520,7 +10520,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">54</t>
           </r>
         </is>
       </c>
@@ -10531,7 +10531,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-11</t>
+            <t xml:space="preserve">2023-03-06</t>
           </r>
         </is>
       </c>
@@ -10549,7 +10549,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4221000</t>
+            <t xml:space="preserve">1813000</t>
           </r>
         </is>
       </c>
@@ -10567,7 +10567,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">65000</t>
           </r>
         </is>
       </c>
@@ -10594,7 +10594,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4196000</t>
+            <t xml:space="preserve">1748000</t>
           </r>
         </is>
       </c>
@@ -10612,7 +10612,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">83</t>
+            <t xml:space="preserve">36</t>
           </r>
         </is>
       </c>
@@ -10623,7 +10623,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-10</t>
+            <t xml:space="preserve">2023-03-05</t>
           </r>
         </is>
       </c>
@@ -10641,7 +10641,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4026000</t>
+            <t xml:space="preserve">4388000</t>
           </r>
         </is>
       </c>
@@ -10659,7 +10659,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">185000</t>
           </r>
         </is>
       </c>
@@ -10686,7 +10686,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4026000</t>
+            <t xml:space="preserve">4203000</t>
           </r>
         </is>
       </c>
@@ -10704,7 +10704,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">74</t>
+            <t xml:space="preserve">66</t>
           </r>
         </is>
       </c>
@@ -10715,7 +10715,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-09</t>
+            <t xml:space="preserve">2023-03-04</t>
           </r>
         </is>
       </c>
@@ -10733,7 +10733,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2818000</t>
+            <t xml:space="preserve">4235000</t>
           </r>
         </is>
       </c>
@@ -10751,7 +10751,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">220000</t>
           </r>
         </is>
       </c>
@@ -10778,7 +10778,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2818000</t>
+            <t xml:space="preserve">4015000</t>
           </r>
         </is>
       </c>
@@ -10796,7 +10796,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">57</t>
+            <t xml:space="preserve">76</t>
           </r>
         </is>
       </c>
@@ -10807,7 +10807,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-08</t>
+            <t xml:space="preserve">2023-03-03</t>
           </r>
         </is>
       </c>
@@ -10825,7 +10825,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3445000</t>
+            <t xml:space="preserve">3301000</t>
           </r>
         </is>
       </c>
@@ -10843,7 +10843,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -10870,7 +10870,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3445000</t>
+            <t xml:space="preserve">3286000</t>
           </r>
         </is>
       </c>
@@ -10888,7 +10888,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">67</t>
+            <t xml:space="preserve">59</t>
           </r>
         </is>
       </c>
@@ -10899,7 +10899,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-07</t>
+            <t xml:space="preserve">2023-03-02</t>
           </r>
         </is>
       </c>
@@ -10917,7 +10917,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2314000</t>
+            <t xml:space="preserve">2374000</t>
           </r>
         </is>
       </c>
@@ -10935,7 +10935,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">37000</t>
+            <t xml:space="preserve">310000</t>
           </r>
         </is>
       </c>
@@ -10962,7 +10962,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2277000</t>
+            <t xml:space="preserve">2064000</t>
           </r>
         </is>
       </c>
@@ -10980,7 +10980,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">47</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -10991,7 +10991,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-06</t>
+            <t xml:space="preserve">2023-03-01</t>
           </r>
         </is>
       </c>
@@ -11009,7 +11009,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2823000</t>
+            <t xml:space="preserve">2494000</t>
           </r>
         </is>
       </c>
@@ -11027,7 +11027,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">750000</t>
+            <t xml:space="preserve">460000</t>
           </r>
         </is>
       </c>
@@ -11054,7 +11054,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2073000</t>
+            <t xml:space="preserve">2034000</t>
           </r>
         </is>
       </c>
@@ -11072,7 +11072,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -11083,7 +11083,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-05</t>
+            <t xml:space="preserve">2023-02-28</t>
           </r>
         </is>
       </c>
@@ -11101,7 +11101,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4775000</t>
+            <t xml:space="preserve">2523000</t>
           </r>
         </is>
       </c>
@@ -11119,7 +11119,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">180000</t>
+            <t xml:space="preserve">82000</t>
           </r>
         </is>
       </c>
@@ -11146,7 +11146,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4595000</t>
+            <t xml:space="preserve">2441000</t>
           </r>
         </is>
       </c>
@@ -11164,7 +11164,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -11175,7 +11175,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-04</t>
+            <t xml:space="preserve">2023-02-27</t>
           </r>
         </is>
       </c>
@@ -11193,7 +11193,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3757000</t>
+            <t xml:space="preserve">2296000</t>
           </r>
         </is>
       </c>
@@ -11211,7 +11211,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -11238,7 +11238,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3752000</t>
+            <t xml:space="preserve">2216000</t>
           </r>
         </is>
       </c>
@@ -11256,7 +11256,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">68</t>
+            <t xml:space="preserve">44</t>
           </r>
         </is>
       </c>
@@ -11267,7 +11267,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-03</t>
+            <t xml:space="preserve">2023-02-26</t>
           </r>
         </is>
       </c>
@@ -11285,7 +11285,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2554000</t>
+            <t xml:space="preserve">4204000</t>
           </r>
         </is>
       </c>
@@ -11303,7 +11303,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">150000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -11330,7 +11330,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2404000</t>
+            <t xml:space="preserve">4004000</t>
           </r>
         </is>
       </c>
@@ -11348,7 +11348,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">51</t>
+            <t xml:space="preserve">77</t>
           </r>
         </is>
       </c>
@@ -11359,7 +11359,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-02</t>
+            <t xml:space="preserve">2023-02-25</t>
           </r>
         </is>
       </c>
@@ -11377,7 +11377,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3889000</t>
+            <t xml:space="preserve">4462000</t>
           </r>
         </is>
       </c>
@@ -11395,7 +11395,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13000</t>
+            <t xml:space="preserve">210000</t>
           </r>
         </is>
       </c>
@@ -11422,7 +11422,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3876000</t>
+            <t xml:space="preserve">4252000</t>
           </r>
         </is>
       </c>
@@ -11440,7 +11440,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">70</t>
+            <t xml:space="preserve">90</t>
           </r>
         </is>
       </c>
@@ -11451,7 +11451,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-01</t>
+            <t xml:space="preserve">2023-02-24</t>
           </r>
         </is>
       </c>
@@ -11469,7 +11469,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3373000</t>
+            <t xml:space="preserve">3239000</t>
           </r>
         </is>
       </c>
@@ -11487,7 +11487,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">305000</t>
+            <t xml:space="preserve">60000</t>
           </r>
         </is>
       </c>
@@ -11514,7 +11514,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3068000</t>
+            <t xml:space="preserve">3179000</t>
           </r>
         </is>
       </c>
@@ -11532,7 +11532,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">63</t>
           </r>
         </is>
       </c>
@@ -11543,7 +11543,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-31</t>
+            <t xml:space="preserve">2023-02-23</t>
           </r>
         </is>
       </c>
@@ -11561,7 +11561,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3789000</t>
+            <t xml:space="preserve">2723000</t>
           </r>
         </is>
       </c>
@@ -11579,7 +11579,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -11606,7 +11606,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3769000</t>
+            <t xml:space="preserve">2708000</t>
           </r>
         </is>
       </c>
@@ -11624,7 +11624,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">68</t>
+            <t xml:space="preserve">52</t>
           </r>
         </is>
       </c>
@@ -11635,7 +11635,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-30</t>
+            <t xml:space="preserve">2023-02-22</t>
           </r>
         </is>
       </c>
@@ -11653,7 +11653,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3996000</t>
+            <t xml:space="preserve">2142000</t>
           </r>
         </is>
       </c>
@@ -11671,7 +11671,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">135000</t>
+            <t xml:space="preserve">56000</t>
           </r>
         </is>
       </c>
@@ -11698,7 +11698,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3861000</t>
+            <t xml:space="preserve">2086000</t>
           </r>
         </is>
       </c>
@@ -11716,7 +11716,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">42</t>
           </r>
         </is>
       </c>
@@ -11727,7 +11727,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-29</t>
+            <t xml:space="preserve">2023-02-21</t>
           </r>
         </is>
       </c>
@@ -11745,7 +11745,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5095000</t>
+            <t xml:space="preserve">2099000</t>
           </r>
         </is>
       </c>
@@ -11763,7 +11763,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">140000</t>
+            <t xml:space="preserve">440000</t>
           </r>
         </is>
       </c>
@@ -11790,7 +11790,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4955000</t>
+            <t xml:space="preserve">1659000</t>
           </r>
         </is>
       </c>
@@ -11808,7 +11808,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">84</t>
+            <t xml:space="preserve">48</t>
           </r>
         </is>
       </c>
@@ -11819,7 +11819,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-28</t>
+            <t xml:space="preserve">2023-02-20</t>
           </r>
         </is>
       </c>
@@ -11837,7 +11837,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4775000</t>
+            <t xml:space="preserve">2723000</t>
           </r>
         </is>
       </c>
@@ -11855,7 +11855,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">160000</t>
           </r>
         </is>
       </c>
@@ -11882,7 +11882,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4775000</t>
+            <t xml:space="preserve">2563000</t>
           </r>
         </is>
       </c>
@@ -11900,7 +11900,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">99</t>
+            <t xml:space="preserve">47</t>
           </r>
         </is>
       </c>
@@ -11911,7 +11911,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-27</t>
+            <t xml:space="preserve">2023-02-19</t>
           </r>
         </is>
       </c>
@@ -11929,7 +11929,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3966000</t>
+            <t xml:space="preserve">4625000</t>
           </r>
         </is>
       </c>
@@ -11947,7 +11947,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">380000</t>
           </r>
         </is>
       </c>
@@ -11974,7 +11974,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3866000</t>
+            <t xml:space="preserve">4245000</t>
           </r>
         </is>
       </c>
@@ -11992,7 +11992,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78</t>
+            <t xml:space="preserve">75</t>
           </r>
         </is>
       </c>
@@ -12003,7 +12003,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-26</t>
+            <t xml:space="preserve">2023-02-18</t>
           </r>
         </is>
       </c>
@@ -12021,7 +12021,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3473000</t>
+            <t xml:space="preserve">2690000</t>
           </r>
         </is>
       </c>
@@ -12039,7 +12039,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">375000</t>
+            <t xml:space="preserve">236000</t>
           </r>
         </is>
       </c>
@@ -12066,7 +12066,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3098000</t>
+            <t xml:space="preserve">2454000</t>
           </r>
         </is>
       </c>
@@ -12084,7 +12084,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">73</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -12095,7 +12095,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-25</t>
+            <t xml:space="preserve">2023-02-17</t>
           </r>
         </is>
       </c>
@@ -12113,7 +12113,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3946000</t>
+            <t xml:space="preserve">2845000</t>
           </r>
         </is>
       </c>
@@ -12131,7 +12131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">68000</t>
+            <t xml:space="preserve">50000</t>
           </r>
         </is>
       </c>
@@ -12158,7 +12158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3878000</t>
+            <t xml:space="preserve">2795000</t>
           </r>
         </is>
       </c>
@@ -12176,7 +12176,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78</t>
+            <t xml:space="preserve">59</t>
           </r>
         </is>
       </c>
@@ -12187,7 +12187,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-24</t>
+            <t xml:space="preserve">2023-02-16</t>
           </r>
         </is>
       </c>
@@ -12205,7 +12205,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3706000</t>
+            <t xml:space="preserve">1474000</t>
           </r>
         </is>
       </c>
@@ -12223,7 +12223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -12250,7 +12250,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3706000</t>
+            <t xml:space="preserve">1464000</t>
           </r>
         </is>
       </c>
@@ -12268,7 +12268,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63</t>
+            <t xml:space="preserve">36</t>
           </r>
         </is>
       </c>
@@ -12279,7 +12279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-23</t>
+            <t xml:space="preserve">2023-02-15</t>
           </r>
         </is>
       </c>
@@ -12297,7 +12297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3527000</t>
+            <t xml:space="preserve">2425000</t>
           </r>
         </is>
       </c>
@@ -12315,7 +12315,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -12342,7 +12342,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3500000</t>
+            <t xml:space="preserve">2420000</t>
           </r>
         </is>
       </c>
@@ -12360,7 +12360,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">76</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -12371,7 +12371,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-22</t>
+            <t xml:space="preserve">2023-02-14</t>
           </r>
         </is>
       </c>
@@ -12389,7 +12389,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6238000</t>
+            <t xml:space="preserve">4467000</t>
           </r>
         </is>
       </c>
@@ -12407,7 +12407,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90000</t>
+            <t xml:space="preserve">210000</t>
           </r>
         </is>
       </c>
@@ -12434,7 +12434,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6148000</t>
+            <t xml:space="preserve">4257000</t>
           </r>
         </is>
       </c>
@@ -12452,7 +12452,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">107</t>
+            <t xml:space="preserve">94</t>
           </r>
         </is>
       </c>
@@ -12463,7 +12463,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-21</t>
+            <t xml:space="preserve">2023-02-13</t>
           </r>
         </is>
       </c>
@@ -12481,7 +12481,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5646000</t>
+            <t xml:space="preserve">2715000</t>
           </r>
         </is>
       </c>
@@ -12499,7 +12499,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">165000</t>
           </r>
         </is>
       </c>
@@ -12526,7 +12526,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5546000</t>
+            <t xml:space="preserve">2550000</t>
           </r>
         </is>
       </c>
@@ -12544,7 +12544,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">106</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -12555,7 +12555,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-20</t>
+            <t xml:space="preserve">2023-02-12</t>
           </r>
         </is>
       </c>
@@ -12573,7 +12573,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3478000</t>
+            <t xml:space="preserve">5232000</t>
           </r>
         </is>
       </c>
@@ -12591,7 +12591,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -12618,7 +12618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3478000</t>
+            <t xml:space="preserve">5032000</t>
           </r>
         </is>
       </c>
@@ -12636,7 +12636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">76</t>
+            <t xml:space="preserve">90</t>
           </r>
         </is>
       </c>
@@ -12647,7 +12647,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-19</t>
+            <t xml:space="preserve">2023-02-11</t>
           </r>
         </is>
       </c>
@@ -12665,7 +12665,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4635000</t>
+            <t xml:space="preserve">3422000</t>
           </r>
         </is>
       </c>
@@ -12683,7 +12683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85000</t>
+            <t xml:space="preserve">340000</t>
           </r>
         </is>
       </c>
@@ -12710,7 +12710,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4550000</t>
+            <t xml:space="preserve">3082000</t>
           </r>
         </is>
       </c>
@@ -12728,7 +12728,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">94</t>
+            <t xml:space="preserve">71</t>
           </r>
         </is>
       </c>
@@ -12739,7 +12739,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-18</t>
+            <t xml:space="preserve">2023-02-10</t>
           </r>
         </is>
       </c>
@@ -12757,7 +12757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3469000</t>
+            <t xml:space="preserve">2685000</t>
           </r>
         </is>
       </c>
@@ -12775,7 +12775,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">85000</t>
           </r>
         </is>
       </c>
@@ -12802,7 +12802,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3469000</t>
+            <t xml:space="preserve">2600000</t>
           </r>
         </is>
       </c>
@@ -12831,20 +12831,2338 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">2023-02-09</t>
+          </r>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2810000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">100000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2710000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J139" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">53</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="140" customHeight="1" ht="20">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-08</t>
+          </r>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2758000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">445000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2313000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J140" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">58</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="141" customHeight="1" ht="20">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-07</t>
+          </r>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2012000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">235000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1777000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J141" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">42</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="142" customHeight="1" ht="20">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-06</t>
+          </r>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2999000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">95000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2904000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J142" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">60</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="143" customHeight="1" ht="20">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-05</t>
+          </r>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3688000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">195000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3493000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J143" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">63</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="144" customHeight="1" ht="20">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-04</t>
+          </r>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4317000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">245000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4072000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J144" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">85</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="145" customHeight="1" ht="20">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-03</t>
+          </r>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2980000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">55000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2925000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J145" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">58</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="146" customHeight="1" ht="20">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-02</t>
+          </r>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3575000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">85000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3490000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J146" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">65</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="147" customHeight="1" ht="20">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-02-01</t>
+          </r>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2751000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">525000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2226000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J147" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">62</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="148" customHeight="1" ht="20">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2377000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">170000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2207000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J148" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">46</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="149" customHeight="1" ht="20">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-30</t>
+          </r>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1841000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1831000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J149" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">43</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="150" customHeight="1" ht="20">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-29</t>
+          </r>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3100000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">190000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2910000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J150" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">60</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="151" customHeight="1" ht="20">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-28</t>
+          </r>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5001000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">416000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4585000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J151" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">100</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="152" customHeight="1" ht="20">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-27</t>
+          </r>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2921000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2896000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J152" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">59</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="153" customHeight="1" ht="20">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-26</t>
+          </r>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2166000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">85000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2081000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J153" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">47</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="154" customHeight="1" ht="20">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-25</t>
+          </r>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2991000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">145000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2846000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J154" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">54</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="155" customHeight="1" ht="20">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-24</t>
+          </r>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2420000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">95000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2325000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J155" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">48</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="156" customHeight="1" ht="20">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-23</t>
+          </r>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2831000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2806000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J156" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">58</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="157" customHeight="1" ht="20">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-22</t>
+          </r>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5254000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">200000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5054000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J157" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">88</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="158" customHeight="1" ht="20">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-21</t>
+          </r>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4276000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">270000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4006000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J158" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">91</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="159" customHeight="1" ht="20">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-20</t>
+          </r>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3636000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">200000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3436000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J159" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">66</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="160" customHeight="1" ht="20">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-19</t>
+          </r>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2169000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">75000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2094000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J160" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">48</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="161" customHeight="1" ht="20">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-18</t>
+          </r>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2820000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">316000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2504000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J161" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">61</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="162" customHeight="1" ht="20">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">2023-01-17</t>
           </r>
         </is>
       </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C139" s="1" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2300000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">105000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2195000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J162" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">44</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="163" customHeight="1" ht="20">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-16</t>
+          </r>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2544000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">55000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2489000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J163" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">48</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="164" customHeight="1" ht="20">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-15</t>
+          </r>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4876000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E164" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -12853,43 +15171,642 @@
           </r>
         </is>
       </c>
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="F139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H139" s="1" t="inlineStr">
+      <c r="F164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4676000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J164" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">88</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="165" customHeight="1" ht="20">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-14</t>
+          </r>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4996000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">340000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4656000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J165" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">96</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="166" customHeight="1" ht="20">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-13</t>
+          </r>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3904000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">250000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3654000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J166" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">74</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="167" customHeight="1" ht="20">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-12</t>
+          </r>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2975000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">434000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2541000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J167" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">59</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="168" customHeight="1" ht="20">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-11</t>
+          </r>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2429000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2404000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J168" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">49</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="169" customHeight="1" ht="20">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-10</t>
+          </r>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2910000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">60000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2850000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J169" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">61</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="170" customHeight="1" ht="20">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-09</t>
+          </r>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2155000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2140000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J170" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">42</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="171" customHeight="1" ht="20">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-08</t>
+          </r>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4582000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E171" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -12898,36 +15815,707 @@
           </r>
         </is>
       </c>
-      <c r="I139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J139" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">4</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="140" customHeight="1" ht="575">
-      <c r="A140" s="3" t="inlineStr"/>
-      <c r="B140" s="3" t="inlineStr"/>
-      <c r="C140" s="3" t="inlineStr"/>
-      <c r="D140" s="3" t="inlineStr"/>
-      <c r="E140" s="3" t="inlineStr"/>
-      <c r="F140" s="3" t="inlineStr"/>
-      <c r="G140" s="3" t="inlineStr"/>
-      <c r="H140" s="3" t="inlineStr"/>
-      <c r="I140" s="3" t="inlineStr"/>
-      <c r="J140" s="3" t="inlineStr"/>
+      <c r="F171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">4382000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J171" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">82</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="172" customHeight="1" ht="20">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-07</t>
+          </r>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3345000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">415000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2930000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J172" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">71</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="173" customHeight="1" ht="20">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-06</t>
+          </r>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2934000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">50000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2884000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J173" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">59</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="174" customHeight="1" ht="20">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-05</t>
+          </r>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2768000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">300000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2468000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J174" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">57</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="175" customHeight="1" ht="20">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-04</t>
+          </r>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1700000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">45000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1655000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J175" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">40</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="176" customHeight="1" ht="20">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-03</t>
+          </r>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2302000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">305000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1997000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J176" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">50</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="177" customHeight="1" ht="20">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-02</t>
+          </r>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2040000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">655000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1385000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J177" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">40</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="178" customHeight="1" ht="20">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2023-01-01</t>
+          </r>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2896000</t>
+          </r>
+        </is>
+      </c>
+      <c r="D178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="E178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">110000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="H178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2786000</t>
+          </r>
+        </is>
+      </c>
+      <c r="I178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="J178" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">48</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="179" customHeight="1" ht="575">
+      <c r="A179" s="3" t="inlineStr"/>
+      <c r="B179" s="3" t="inlineStr"/>
+      <c r="C179" s="3" t="inlineStr"/>
+      <c r="D179" s="3" t="inlineStr"/>
+      <c r="E179" s="3" t="inlineStr"/>
+      <c r="F179" s="3" t="inlineStr"/>
+      <c r="G179" s="3" t="inlineStr"/>
+      <c r="H179" s="3" t="inlineStr"/>
+      <c r="I179" s="3" t="inlineStr"/>
+      <c r="J179" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
